--- a/biology/Médecine/Sida_en_Europe/Sida_en_Europe.xlsx
+++ b/biology/Médecine/Sida_en_Europe/Sida_en_Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sida est présent en Europe depuis les années 1980.
 </t>
@@ -511,9 +523,11 @@
           <t>Quelques données statistiques actuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les données de la CIA de 2013 et 2014, les pays les plus touchés étaient l'Ukraine (210 700 séropositifs), la France (180 000 séropositifs), l'Espagne (150 400), le Royaume-Uni (126 700) et l'Italie (122 000)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les données de la CIA de 2013 et 2014, les pays les plus touchés étaient l'Ukraine (210 700 séropositifs), la France (180 000 séropositifs), l'Espagne (150 400), le Royaume-Uni (126 700) et l'Italie (122 000).
 Selon l'EuroHIV (programme européen pour la surveillance épidémiologique du sida), un total de 71 755 cas d’infection à VIH nouvellement diagnostiqués ont été déclarés en 2004 dans l'Union européenne. Le nombre total de personne séropositives à l'échelle continentale est difficilement évaluable car les données transmises (lorsqu'elles le sont) par les États ne sont pas centralisées et ne parviennent pas, ou du moins avec des approximations douteuses, aux organismes étatiques de santé.
 </t>
         </is>
@@ -543,17 +557,19 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est indéniable, comme pour la majorité des zones touchées du globe, que la diffusion du virus est exponentielle[réf. nécessaire].Cependant, il est intéressant d'observer les contrastes, les dynamiques de l'évolution virale en Europe.[style à revoir] Il semblerait que ce contraste opère selon un axe Est-Ouest. L'évolution en Europe de l'Est serait bien plus forte que celle de l'Ouest, bien que cette dernière demeure inquiétante.
 Malgré le risque de sous-diagnostic et de sous-reporting, en 2020, 104 765 nouvelles infections au HIV sont rapportés dans 46 des 53 pays de la région européenne de l'ONU, parmi lesquels 14 971 nouvelles infections (14 %) se trouvent dans l'Union européenne ou l'Espace économique européen (UE/EEE) et 
-89794 (86 %) en dehors de l'UE/EEE. Cela correspond à une croissance de 11,8 nouvelles infections diagnostiquées par 100 000 habitant dans la région européenne[2].
-Dans la région européenne de l'ONU/OMS[2],
+89794 (86 %) en dehors de l'UE/EEE. Cela correspond à une croissance de 11,8 nouvelles infections diagnostiquées par 100 000 habitant dans la région européenne.
+Dans la région européenne de l'ONU/OMS,
 le plus grand nombre de diagnostic positifs HIV se trouve à l'Est[Où ?], atteignant 32,6 par 100 000 habitants ;
 un plus faible taux de diagnostic positifs HIV se trouve à l'Ouest et en UE/EEE, atteignant 3,7 et 3,3 par 100 000 habitants respectivement ;
 le plus faible taux de diagnostic positifs HIV se trouve au centre : 2,3 par 100 000 habitants.
-Le principal mode de transmission varie par aire géographique: homosexuel à l'ouest, hétérosexuel à l'Est[2]
-Les migrants (définis comme provenant d'un pays autre que le pays où ils sont diagnostiqués) comptent pour 44 % des diagnostiqués positifs dans l'UE/EEE en 2020, dont 15 % d'Afrique sub-saharienne, 10 % d'Amérique latine et des Caraïbes, 9 % d'autres pays d'Europe centrale et d'Europe de l'Est et 3 % d'autres pays d'Europe de l'Ouest[2].
+Le principal mode de transmission varie par aire géographique: homosexuel à l'ouest, hétérosexuel à l'Est
+Les migrants (définis comme provenant d'un pays autre que le pays où ils sont diagnostiqués) comptent pour 44 % des diagnostiqués positifs dans l'UE/EEE en 2020, dont 15 % d'Afrique sub-saharienne, 10 % d'Amérique latine et des Caraïbes, 9 % d'autres pays d'Europe centrale et d'Europe de l'Est et 3 % d'autres pays d'Europe de l'Ouest.
 </t>
         </is>
       </c>
